--- a/data/vlsp2016/eda/total/column-1-analyze.xlsx
+++ b/data/vlsp2016/eda/total/column-1-analyze.xlsx
@@ -53,13 +53,13 @@
     <t>FW</t>
   </si>
   <si>
-    <t>tivi, két, bar, karaoke, golf, casino, oxy, website, Merdeka, gas</t>
+    <t>tivi, két, bar, karaoke, golf, casino, oxy, Merdeka, website, taxi</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>ơi, ạ, Ôi, à, Thôi, Vâng, nhỉ, nhé, ư, À</t>
+    <t>ơi, ạ, Ôi, à, Vâng, Thôi, nhỉ, nhé, ư, À</t>
   </si>
   <si>
     <t>L</t>
@@ -95,7 +95,7 @@
     <t>Nu</t>
   </si>
   <si>
-    <t>đồng, giờ, g, m, phút, km, ha, USD, kg, đ</t>
+    <t>đồng, giờ, g, m, phút, ha, km, USD, kg, đ</t>
   </si>
   <si>
     <t>Ny</t>
@@ -119,7 +119,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>cả, chính, ngay, thôi, rồi, cái, thật, mà, đâu, đấy</t>
+    <t>cả, chính, ngay, thôi, rồi, cái, mà, thật, đâu, đấy</t>
   </si>
   <si>
     <t>V</t>
@@ -137,13 +137,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>như thế, như vậy, làm sao, nhất là, thế nào, có lẽ, ngày càng, vì sao, một mình, Như vậy</t>
+    <t>như thế, như vậy, làm sao, nhất là, thế nào, có lẽ, vì sao, ngày càng, một mình, Như vậy</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>phó, viên, bất, siêu, tổng, tái, liên, hoá, phi, đa</t>
+    <t>phó, viên, siêu, bất, tổng, tái, liên, đa, phi, hoá</t>
   </si>
 </sst>
 </file>
